--- a/examples/example1.xlsx
+++ b/examples/example1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="sections" sheetId="1" state="visible" r:id="rId2"/>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">nations</t>
   </si>
   <si>
-    <t xml:space="preserve">gic</t>
+    <t xml:space="preserve">cic</t>
   </si>
   <si>
     <t xml:space="preserve">Male</t>
@@ -350,10 +350,10 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -695,10 +695,10 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
